--- a/3架无人机航线.xlsx
+++ b/3架无人机航线.xlsx
@@ -1,47 +1,582 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="19380" windowHeight="8220"/>
   </bookViews>
   <sheets>
-    <sheet name="3架无人机" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3架无人机" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>无人机编号</t>
+  </si>
+  <si>
+    <t>第1个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第1个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第1个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第2个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第2个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第2个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第3个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第3个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第3个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第4个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第4个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第4个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第5个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第5个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第5个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第6个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第6个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第6个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第7个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第7个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第7个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第8个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第8个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第8个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第9个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第9个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第9个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第10个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第10个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第10个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第11个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第11个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第11个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第12个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第12个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第12个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第13个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第13个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第13个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第14个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第14个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第14个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第15个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第15个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第15个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第16个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第16个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第16个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第17个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第17个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第17个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第18个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第18个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第18个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第19个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第19个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第19个时刻空间位置z坐标值</t>
+  </si>
+  <si>
+    <t>第20个时刻空间位置x坐标值</t>
+  </si>
+  <si>
+    <t>第20个时刻空间位置y坐标值</t>
+  </si>
+  <si>
+    <t>第20个时刻空间位置z坐标值</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,26 +585,332 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -78,7 +919,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -352,762 +1193,762 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BI4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:61">
-      <c r="B1" s="1" t="n">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:61">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>39524.6088</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>63106.63686</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2487.91209</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>39895.05666</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>63111.2187</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2487.91209</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>40265.50451</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>63115.80053</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>2487.91209</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>40635.95237</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>63120.38237</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>2487.91209</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>41006.40023</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>63124.96421</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>2487.91209</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>41376.84808</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>63129.54604</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>2487.91209</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>41747.29594</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>63134.12788</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>2487.91209</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>42117.7438</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>63138.70972</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>2487.91209</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>42488.19165</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>63143.29155</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>2487.91209</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>42858.63951</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>63147.87339</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>2487.91209</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>43229.08737</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>63152.45523</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>2487.91209</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>43599.53522</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>63157.03706</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>2487.91209</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>43969.98308</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>63161.6189</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>2487.91209</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>44340.43094</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>63166.20074</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>2487.91209</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>44710.87879</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>63170.78258</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>2487.91209</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>45081.32665</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>63175.36441</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>2487.91209</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>45451.77451</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>63179.94625</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>2487.91209</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>45822.22236</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>63184.52809</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>2487.91209</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>46192.67022</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>63189.10992</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>2487.91209</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>46563.11808</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>63193.69176</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>2487.91209</v>
       </c>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>56643.57486</v>
       </c>
-      <c r="C3" t="n">
-        <v>98249.80353999999</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>98249.80354</v>
+      </c>
+      <c r="D3">
         <v>2346.88645</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>56853.40407</v>
       </c>
-      <c r="F3" t="n">
-        <v>97988.14969999999</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>97988.1497</v>
+      </c>
+      <c r="G3">
         <v>2346.88645</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>57063.23329</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>97726.49587</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2346.88645</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>57273.0625</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>97464.84203</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>2346.88645</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>57482.89172</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>97203.18819</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>2346.88645</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>57692.72093</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>96941.53435</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>2346.88645</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>57902.55015</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>96679.88051</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>2346.88645</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>58112.37936</v>
       </c>
-      <c r="X3" t="n">
-        <v>96418.22668000001</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="X3">
+        <v>96418.22668</v>
+      </c>
+      <c r="Y3">
         <v>2346.88645</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>58322.20858</v>
       </c>
-      <c r="AA3" t="n">
-        <v>96156.57283999999</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AA3">
+        <v>96156.57284</v>
+      </c>
+      <c r="AB3">
         <v>2346.88645</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>58532.03779</v>
       </c>
-      <c r="AD3" t="n">
-        <v>95894.91899999999</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AD3">
+        <v>95894.919</v>
+      </c>
+      <c r="AE3">
         <v>2346.88645</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>58741.86701</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>95633.26516</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>2346.88645</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>58951.69623</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>95371.61133</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>2346.88645</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>59161.52544</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>95109.95749</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>2346.88645</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>59371.35466</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>94848.30365</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>2346.88645</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>59581.18387</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>94586.64981</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>2346.88645</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>59791.01309</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>94324.99597</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>2346.88645</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>60000.8423</v>
       </c>
-      <c r="AY3" t="n">
-        <v>94063.34213999999</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="AY3">
+        <v>94063.34214</v>
+      </c>
+      <c r="AZ3">
         <v>2346.88645</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>60210.67152</v>
       </c>
-      <c r="BB3" t="n">
-        <v>93801.68829999999</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="BB3">
+        <v>93801.6883</v>
+      </c>
+      <c r="BC3">
         <v>2346.88645</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>60420.50073</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>93540.03446</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>2346.88645</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>60630.32995</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>93278.38062</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>2346.88645</v>
       </c>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>93428.98123999999</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>93428.98124</v>
+      </c>
+      <c r="C4">
         <v>99570.76699</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2082.90598</v>
       </c>
-      <c r="E4" t="n">
-        <v>93279.34437999999</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>93279.34438</v>
+      </c>
+      <c r="F4">
         <v>99237.76285</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2082.90598</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>93129.70753</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>98904.75872</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>2082.90598</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>92980.07067</v>
       </c>
-      <c r="L4" t="n">
-        <v>98571.75457999999</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4">
+        <v>98571.75458</v>
+      </c>
+      <c r="M4">
         <v>2082.90598</v>
       </c>
-      <c r="N4" t="n">
-        <v>92830.43382000001</v>
-      </c>
-      <c r="O4" t="n">
-        <v>98238.75045000001</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="N4">
+        <v>92830.43382</v>
+      </c>
+      <c r="O4">
+        <v>98238.75045</v>
+      </c>
+      <c r="P4">
         <v>2082.90598</v>
       </c>
-      <c r="Q4" t="n">
-        <v>92680.79696000001</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4">
+        <v>92680.79696</v>
+      </c>
+      <c r="R4">
         <v>97905.74631</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>2082.90598</v>
       </c>
-      <c r="T4" t="n">
-        <v>92531.16009999999</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4">
+        <v>92531.1601</v>
+      </c>
+      <c r="U4">
         <v>97572.74218</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>2082.90598</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>92381.52325</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>97239.73804</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>2082.90598</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>92231.88639</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>96906.73391</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>2082.90598</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>92082.24954</v>
       </c>
-      <c r="AD4" t="n">
-        <v>96573.72977000001</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AD4">
+        <v>96573.72977</v>
+      </c>
+      <c r="AE4">
         <v>2082.90598</v>
       </c>
-      <c r="AF4" t="n">
-        <v>91932.61268000001</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AF4">
+        <v>91932.61268</v>
+      </c>
+      <c r="AG4">
         <v>96240.72563</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>2082.90598</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>91782.97583</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>95907.7215</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>2082.90598</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>91633.33897</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>95574.71736</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>2082.90598</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>91483.70211</v>
       </c>
-      <c r="AP4" t="n">
-        <v>95241.71322999999</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AP4">
+        <v>95241.71323</v>
+      </c>
+      <c r="AQ4">
         <v>2082.90598</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>91334.06526</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>94908.70909</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>2082.90598</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>91184.4284</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>94575.70496</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>2082.90598</v>
       </c>
-      <c r="AX4" t="n">
-        <v>91034.79154999999</v>
-      </c>
-      <c r="AY4" t="n">
+      <c r="AX4">
+        <v>91034.79155</v>
+      </c>
+      <c r="AY4">
         <v>94242.70082</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>2082.90598</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>90885.15469</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>93909.69669</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>2082.90598</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>90735.51783</v>
       </c>
-      <c r="BE4" t="n">
-        <v>93576.69255000001</v>
-      </c>
-      <c r="BF4" t="n">
+      <c r="BE4">
+        <v>93576.69255</v>
+      </c>
+      <c r="BF4">
         <v>2082.90598</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>90585.88098</v>
       </c>
-      <c r="BH4" t="n">
-        <v>93243.68842000001</v>
-      </c>
-      <c r="BI4" t="n">
+      <c r="BH4">
+        <v>93243.68842</v>
+      </c>
+      <c r="BI4">
         <v>2082.90598</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>